--- a/WP1/Data/VektorenUebersetzung.xlsx
+++ b/WP1/Data/VektorenUebersetzung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t xml:space="preserve">CASPIAN</t>
   </si>
@@ -285,15 +285,6 @@
   </si>
   <si>
     <t xml:space="preserve">TRANSPORT.-.CONTAMINANT:.Unknown; TRANSPORT.-.STOWAWAY:.Unknown; UNKNOWN; CORRIDOR:.Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eigenständige Ausbreitung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unaided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNAIDED:.Natural.dispersal.across.borders.of.invasive.alien.species.that.have.been.introduced.through.pathways.1.to.5</t>
   </si>
   <si>
     <t xml:space="preserve">Tierpark</t>
@@ -487,10 +478,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -796,16 +787,7 @@
       </c>
       <c r="G17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>72</v>
-      </c>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,9 +816,6 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G28" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -860,7 +839,7 @@
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -873,25 +852,25 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -903,55 +882,55 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -963,13 +942,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -981,13 +960,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -999,25 +978,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E27" s="4"/>
     </row>
